--- a/Code/Results/Cases/Case_3_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_147/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9932344481345038</v>
+        <v>1.033963283021942</v>
       </c>
       <c r="D2">
-        <v>1.013022883241518</v>
+        <v>1.036364150783965</v>
       </c>
       <c r="E2">
-        <v>1.005901948507714</v>
+        <v>1.042777961901193</v>
       </c>
       <c r="F2">
-        <v>1.006897670208522</v>
+        <v>1.052831699119817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043125202228952</v>
+        <v>1.033085759734932</v>
       </c>
       <c r="J2">
-        <v>1.015619416059438</v>
+        <v>1.03908512900133</v>
       </c>
       <c r="K2">
-        <v>1.024303721712799</v>
+        <v>1.03915810398726</v>
       </c>
       <c r="L2">
-        <v>1.017279667651605</v>
+        <v>1.045553689824181</v>
       </c>
       <c r="M2">
-        <v>1.018261738724338</v>
+        <v>1.055579343117329</v>
       </c>
       <c r="N2">
-        <v>1.008697742462053</v>
+        <v>1.016918472441336</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9997855779442252</v>
+        <v>1.035269566251127</v>
       </c>
       <c r="D3">
-        <v>1.018001389075211</v>
+        <v>1.037350660930939</v>
       </c>
       <c r="E3">
-        <v>1.011784435829091</v>
+        <v>1.044011395080187</v>
       </c>
       <c r="F3">
-        <v>1.013852983933952</v>
+        <v>1.054320994020457</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04515386994377</v>
+        <v>1.033374583315384</v>
       </c>
       <c r="J3">
-        <v>1.020282090028394</v>
+        <v>1.04003253949056</v>
       </c>
       <c r="K3">
-        <v>1.028409005543429</v>
+        <v>1.039953730936244</v>
       </c>
       <c r="L3">
-        <v>1.022268720767147</v>
+        <v>1.046596917790977</v>
       </c>
       <c r="M3">
-        <v>1.024311629266493</v>
+        <v>1.056879828409117</v>
       </c>
       <c r="N3">
-        <v>1.010291623359898</v>
+        <v>1.01723796926151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003904896995794</v>
+        <v>1.036113699194543</v>
       </c>
       <c r="D4">
-        <v>1.021131520357436</v>
+        <v>1.037987564845148</v>
       </c>
       <c r="E4">
-        <v>1.015490044447996</v>
+        <v>1.04480888915165</v>
       </c>
       <c r="F4">
-        <v>1.018236699284475</v>
+        <v>1.055284439131023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046412508178654</v>
+        <v>1.033559086338679</v>
       </c>
       <c r="J4">
-        <v>1.02320923982456</v>
+        <v>1.040644011864765</v>
       </c>
       <c r="K4">
-        <v>1.030981424623941</v>
+        <v>1.040466513564812</v>
       </c>
       <c r="L4">
-        <v>1.02540504498398</v>
+        <v>1.047270779300888</v>
       </c>
       <c r="M4">
-        <v>1.028119895221387</v>
+        <v>1.057720594144355</v>
       </c>
       <c r="N4">
-        <v>1.011291681562585</v>
+        <v>1.017444027952531</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005609452429987</v>
+        <v>1.036468308920704</v>
       </c>
       <c r="D5">
-        <v>1.022426571069602</v>
+        <v>1.038254978207963</v>
       </c>
       <c r="E5">
-        <v>1.017024967035154</v>
+        <v>1.045144010821499</v>
       </c>
       <c r="F5">
-        <v>1.020053104850152</v>
+        <v>1.05568942151139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046929178538916</v>
+        <v>1.033636081271939</v>
       </c>
       <c r="J5">
-        <v>1.024419292675002</v>
+        <v>1.040900702898949</v>
       </c>
       <c r="K5">
-        <v>1.032043647901554</v>
+        <v>1.040681600887011</v>
       </c>
       <c r="L5">
-        <v>1.026702607769874</v>
+        <v>1.047553792150664</v>
       </c>
       <c r="M5">
-        <v>1.029696696215525</v>
+        <v>1.058073880170547</v>
       </c>
       <c r="N5">
-        <v>1.011704950728012</v>
+        <v>1.017530493817832</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005894099509699</v>
+        <v>1.036527834110921</v>
       </c>
       <c r="D6">
-        <v>1.022642820434535</v>
+        <v>1.038299858155343</v>
       </c>
       <c r="E6">
-        <v>1.017281376904343</v>
+        <v>1.045200270832815</v>
       </c>
       <c r="F6">
-        <v>1.020356573356629</v>
+        <v>1.055757417042656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047015212244762</v>
+        <v>1.033648975651888</v>
       </c>
       <c r="J6">
-        <v>1.024621290308344</v>
+        <v>1.040943780723966</v>
       </c>
       <c r="K6">
-        <v>1.032220897101638</v>
+        <v>1.040717686529286</v>
       </c>
       <c r="L6">
-        <v>1.026919275203295</v>
+        <v>1.047601295012581</v>
       </c>
       <c r="M6">
-        <v>1.029960064791122</v>
+        <v>1.058133188488609</v>
       </c>
       <c r="N6">
-        <v>1.011773930133426</v>
+        <v>1.017545002389612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003927778415005</v>
+        <v>1.036118438538176</v>
       </c>
       <c r="D7">
-        <v>1.021148905572489</v>
+        <v>1.037991139372862</v>
       </c>
       <c r="E7">
-        <v>1.015510642672374</v>
+        <v>1.04481336762858</v>
       </c>
       <c r="F7">
-        <v>1.018261072491461</v>
+        <v>1.055289850715828</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046419460311935</v>
+        <v>1.033560117387952</v>
       </c>
       <c r="J7">
-        <v>1.023225487970751</v>
+        <v>1.040647443240946</v>
       </c>
       <c r="K7">
-        <v>1.030995692513811</v>
+        <v>1.04046938948108</v>
       </c>
       <c r="L7">
-        <v>1.025422464049825</v>
+        <v>1.04727456202294</v>
       </c>
       <c r="M7">
-        <v>1.028141057954486</v>
+        <v>1.057725315439838</v>
       </c>
       <c r="N7">
-        <v>1.011297231375707</v>
+        <v>1.017445183945993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9954741270146988</v>
+        <v>1.034404981973263</v>
       </c>
       <c r="D8">
-        <v>1.014724922009145</v>
+        <v>1.036697844835253</v>
       </c>
       <c r="E8">
-        <v>1.007911579659597</v>
+        <v>1.043194936847198</v>
       </c>
       <c r="F8">
-        <v>1.009273359900074</v>
+        <v>1.053335063409497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043822289753786</v>
+        <v>1.033183863405718</v>
       </c>
       <c r="J8">
-        <v>1.017214434789109</v>
+        <v>1.039405636692713</v>
       </c>
       <c r="K8">
-        <v>1.025709061626457</v>
+        <v>1.039427413802104</v>
       </c>
       <c r="L8">
-        <v>1.018985439509243</v>
+        <v>1.045906499176015</v>
       </c>
       <c r="M8">
-        <v>1.020329165885498</v>
+        <v>1.056019002927847</v>
       </c>
       <c r="N8">
-        <v>1.009243090824496</v>
+        <v>1.017026588629381</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9795893847265277</v>
+        <v>1.031376884466236</v>
       </c>
       <c r="D9">
-        <v>1.002656618964129</v>
+        <v>1.034407807086443</v>
       </c>
       <c r="E9">
-        <v>0.9936900243924592</v>
+        <v>1.040338150781089</v>
       </c>
       <c r="F9">
-        <v>0.9924688933502883</v>
+        <v>1.049888518530873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038808271826676</v>
+        <v>1.032502548460414</v>
       </c>
       <c r="J9">
-        <v>1.00588407002433</v>
+        <v>1.037205295935338</v>
       </c>
       <c r="K9">
-        <v>1.015706740925575</v>
+        <v>1.037575587565116</v>
       </c>
       <c r="L9">
-        <v>1.006886312921116</v>
+        <v>1.043486641593236</v>
       </c>
       <c r="M9">
-        <v>1.005685350809156</v>
+        <v>1.053006445988436</v>
       </c>
       <c r="N9">
-        <v>1.005367264150441</v>
+        <v>1.01628374387137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9682235638188683</v>
+        <v>1.029351985096348</v>
       </c>
       <c r="D10">
-        <v>0.9940314671828703</v>
+        <v>1.032873511607486</v>
       </c>
       <c r="E10">
-        <v>0.9835579474287246</v>
+        <v>1.038430105303647</v>
       </c>
       <c r="F10">
-        <v>0.980503514028001</v>
+        <v>1.047589205950183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035134833981403</v>
+        <v>1.032035971409568</v>
       </c>
       <c r="J10">
-        <v>0.9977572271785613</v>
+        <v>1.035730071293444</v>
       </c>
       <c r="K10">
-        <v>1.008509328065033</v>
+        <v>1.036330318074237</v>
       </c>
       <c r="L10">
-        <v>0.9982305524887847</v>
+        <v>1.041867043807881</v>
       </c>
       <c r="M10">
-        <v>0.9952339378606925</v>
+        <v>1.050993902329774</v>
       </c>
       <c r="N10">
-        <v>1.002585445453548</v>
+        <v>1.015784942566859</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9630891703983718</v>
+        <v>1.02847365693921</v>
       </c>
       <c r="D11">
-        <v>0.9901395479661234</v>
+        <v>1.032207306956935</v>
       </c>
       <c r="E11">
-        <v>0.9789924486691958</v>
+        <v>1.037603014611959</v>
       </c>
       <c r="F11">
-        <v>0.9751125626313036</v>
+        <v>1.046593127816172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033456306312302</v>
+        <v>1.031830991399079</v>
       </c>
       <c r="J11">
-        <v>0.994082393369657</v>
+        <v>1.035089265254123</v>
       </c>
       <c r="K11">
-        <v>1.005249844884638</v>
+        <v>1.035788527838491</v>
       </c>
       <c r="L11">
-        <v>0.9943217168483459</v>
+        <v>1.041164185680429</v>
       </c>
       <c r="M11">
-        <v>0.9905195928483789</v>
+        <v>1.050121400058778</v>
       </c>
       <c r="N11">
-        <v>1.001327317395638</v>
+        <v>1.015568095856215</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.961147232143261</v>
+        <v>1.028147170981265</v>
       </c>
       <c r="D12">
-        <v>0.9886683950847734</v>
+        <v>1.031959568676464</v>
       </c>
       <c r="E12">
-        <v>0.9772675289780165</v>
+        <v>1.037295657461782</v>
       </c>
       <c r="F12">
-        <v>0.9730757724924625</v>
+        <v>1.046223064974262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03281870292982</v>
+        <v>1.031754408356949</v>
       </c>
       <c r="J12">
-        <v>0.9926920505425654</v>
+        <v>1.03485093358484</v>
       </c>
       <c r="K12">
-        <v>1.004015959134886</v>
+        <v>1.035586892235397</v>
       </c>
       <c r="L12">
-        <v>0.9928436024090961</v>
+        <v>1.040902874199789</v>
       </c>
       <c r="M12">
-        <v>0.988737638846931</v>
+        <v>1.049797149797999</v>
       </c>
       <c r="N12">
-        <v>1.000851298818296</v>
+        <v>1.015487418585528</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9615654078780571</v>
+        <v>1.028217214083889</v>
       </c>
       <c r="D13">
-        <v>0.988985150321907</v>
+        <v>1.032012722108564</v>
       </c>
       <c r="E13">
-        <v>0.9776388866179674</v>
+        <v>1.037361592968761</v>
       </c>
       <c r="F13">
-        <v>0.9735142743525803</v>
+        <v>1.046302448201921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032956126038667</v>
+        <v>1.031770855807422</v>
       </c>
       <c r="J13">
-        <v>0.9929914642638284</v>
+        <v>1.034902070523894</v>
       </c>
       <c r="K13">
-        <v>1.004281709585958</v>
+        <v>1.035630161478817</v>
       </c>
       <c r="L13">
-        <v>0.993161883861898</v>
+        <v>1.040958937265674</v>
       </c>
       <c r="M13">
-        <v>0.989121312324733</v>
+        <v>1.049866710087634</v>
       </c>
       <c r="N13">
-        <v>1.000953811003478</v>
+        <v>1.015504730069488</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9629293764450041</v>
+        <v>1.028446674349158</v>
       </c>
       <c r="D14">
-        <v>0.9900184744526993</v>
+        <v>1.032186834567553</v>
       </c>
       <c r="E14">
-        <v>0.9788504740416888</v>
+        <v>1.037577611232315</v>
       </c>
       <c r="F14">
-        <v>0.9749449191891741</v>
+        <v>1.046562539871771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03340389561717</v>
+        <v>1.031824670092761</v>
       </c>
       <c r="J14">
-        <v>0.9939679962253913</v>
+        <v>1.035069570983932</v>
       </c>
       <c r="K14">
-        <v>1.005148334624934</v>
+        <v>1.035771868561493</v>
       </c>
       <c r="L14">
-        <v>0.9942000825273682</v>
+        <v>1.041142590484493</v>
       </c>
       <c r="M14">
-        <v>0.990372940356783</v>
+        <v>1.050094600808117</v>
       </c>
       <c r="N14">
-        <v>1.001288150896026</v>
+        <v>1.01556142972188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9637650619703224</v>
+        <v>1.028588020987292</v>
       </c>
       <c r="D15">
-        <v>0.9906516969529867</v>
+        <v>1.032294073776558</v>
       </c>
       <c r="E15">
-        <v>0.9795930445265407</v>
+        <v>1.037710688682026</v>
       </c>
       <c r="F15">
-        <v>0.9758217447458173</v>
+        <v>1.046722780809557</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033677880486754</v>
+        <v>1.03185776793229</v>
       </c>
       <c r="J15">
-        <v>0.9945662495899154</v>
+        <v>1.035172732651671</v>
       </c>
       <c r="K15">
-        <v>1.005679166885568</v>
+        <v>1.035859127127648</v>
       </c>
       <c r="L15">
-        <v>0.9948362144050373</v>
+        <v>1.041255713544736</v>
       </c>
       <c r="M15">
-        <v>0.9911399447151675</v>
+        <v>1.050234989906063</v>
       </c>
       <c r="N15">
-        <v>1.001492976179163</v>
+        <v>1.015596346888494</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9685595985798626</v>
+        <v>1.029410244076966</v>
       </c>
       <c r="D16">
-        <v>0.9942862917732178</v>
+        <v>1.032917686290455</v>
       </c>
       <c r="E16">
-        <v>0.9838569980037017</v>
+        <v>1.038484977364274</v>
       </c>
       <c r="F16">
-        <v>0.980856638877853</v>
+        <v>1.047655302170626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03524430442878</v>
+        <v>1.032049513015865</v>
       </c>
       <c r="J16">
-        <v>0.997997670420163</v>
+        <v>1.035772556521843</v>
       </c>
       <c r="K16">
-        <v>1.008722497413777</v>
+        <v>1.036366220294669</v>
       </c>
       <c r="L16">
-        <v>0.9984864121037127</v>
+        <v>1.041913656939655</v>
       </c>
       <c r="M16">
-        <v>0.9955426311270528</v>
+        <v>1.051051784708627</v>
       </c>
       <c r="N16">
-        <v>1.002667761108967</v>
+        <v>1.015799315698042</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9715082010397715</v>
+        <v>1.029925588570453</v>
       </c>
       <c r="D17">
-        <v>0.9965228186843113</v>
+        <v>1.033308365931413</v>
       </c>
       <c r="E17">
-        <v>0.9864823939795783</v>
+        <v>1.038970425596472</v>
       </c>
       <c r="F17">
-        <v>0.9839568193360393</v>
+        <v>1.048240120731226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03620273154693</v>
+        <v>1.032168999196861</v>
       </c>
       <c r="J17">
-        <v>1.000107089368513</v>
+        <v>1.036148265704165</v>
       </c>
       <c r="K17">
-        <v>1.010592091411687</v>
+        <v>1.036683613561138</v>
       </c>
       <c r="L17">
-        <v>1.00073166105792</v>
+        <v>1.042325946503937</v>
       </c>
       <c r="M17">
-        <v>0.998252115129563</v>
+        <v>1.051563851717493</v>
       </c>
       <c r="N17">
-        <v>1.003389895810026</v>
+        <v>1.015926400941103</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9732077339429973</v>
+        <v>1.030226032714666</v>
       </c>
       <c r="D18">
-        <v>0.9978123221799642</v>
+        <v>1.033536064991793</v>
       </c>
       <c r="E18">
-        <v>0.9879967149537197</v>
+        <v>1.039253493344092</v>
       </c>
       <c r="F18">
-        <v>0.9857450607820978</v>
+        <v>1.048581191460245</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036753351620215</v>
+        <v>1.032238409010066</v>
       </c>
       <c r="J18">
-        <v>1.001322581570717</v>
+        <v>1.036367215475283</v>
       </c>
       <c r="K18">
-        <v>1.011668924943919</v>
+        <v>1.036868494919225</v>
       </c>
       <c r="L18">
-        <v>1.002025908119346</v>
+        <v>1.042566277636813</v>
       </c>
       <c r="M18">
-        <v>0.9998144749206539</v>
+        <v>1.051862430051129</v>
       </c>
       <c r="N18">
-        <v>1.003805982127326</v>
+        <v>1.016000444479054</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9737838611303712</v>
+        <v>1.030328451533984</v>
       </c>
       <c r="D19">
-        <v>0.99824951547461</v>
+        <v>1.033613674427493</v>
       </c>
       <c r="E19">
-        <v>0.9885102368691798</v>
+        <v>1.039349997679198</v>
       </c>
       <c r="F19">
-        <v>0.9863514858602579</v>
+        <v>1.048697480470935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036939697769079</v>
+        <v>1.032262027752288</v>
       </c>
       <c r="J19">
-        <v>1.001734561338496</v>
+        <v>1.036441838717836</v>
       </c>
       <c r="K19">
-        <v>1.012033827046543</v>
+        <v>1.036931492577335</v>
       </c>
       <c r="L19">
-        <v>1.002464664112699</v>
+        <v>1.042648198955025</v>
       </c>
       <c r="M19">
-        <v>1.0003442102693</v>
+        <v>1.051964220454451</v>
       </c>
       <c r="N19">
-        <v>1.003947006263042</v>
+        <v>1.016025677346241</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9711939666795492</v>
+        <v>1.029870312288961</v>
       </c>
       <c r="D20">
-        <v>0.9962844276840903</v>
+        <v>1.033266468113732</v>
       </c>
       <c r="E20">
-        <v>0.9862024909744506</v>
+        <v>1.038918350523733</v>
       </c>
       <c r="F20">
-        <v>0.9836262916095998</v>
+        <v>1.048177379834024</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036100778000139</v>
+        <v>1.032156208892676</v>
       </c>
       <c r="J20">
-        <v>0.9998823226894905</v>
+        <v>1.036107975866148</v>
       </c>
       <c r="K20">
-        <v>1.010392927114349</v>
+        <v>1.03664958602045</v>
       </c>
       <c r="L20">
-        <v>1.000492370696676</v>
+        <v>1.042281727322217</v>
       </c>
       <c r="M20">
-        <v>0.9979632956440775</v>
+        <v>1.05150892233073</v>
       </c>
       <c r="N20">
-        <v>1.003312951861632</v>
+        <v>1.015912774505094</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9625287064863403</v>
+        <v>1.02837911057224</v>
       </c>
       <c r="D21">
-        <v>0.9897149071922627</v>
+        <v>1.032135570548127</v>
       </c>
       <c r="E21">
-        <v>0.9784945147140083</v>
+        <v>1.037514003106539</v>
       </c>
       <c r="F21">
-        <v>0.9745246025517275</v>
+        <v>1.046485951477322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033272436417437</v>
+        <v>1.031808835403293</v>
       </c>
       <c r="J21">
-        <v>0.9936811482275592</v>
+        <v>1.035020254799129</v>
       </c>
       <c r="K21">
-        <v>1.004893789300791</v>
+        <v>1.035730150163311</v>
       </c>
       <c r="L21">
-        <v>0.9938950996746287</v>
+        <v>1.041088515810447</v>
       </c>
       <c r="M21">
-        <v>0.9900052396450306</v>
+        <v>1.05002749724184</v>
       </c>
       <c r="N21">
-        <v>1.001189941674732</v>
+        <v>1.015544736706189</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9568775454199471</v>
+        <v>1.027440166055565</v>
       </c>
       <c r="D22">
-        <v>0.9854356182195722</v>
+        <v>1.031422907600754</v>
       </c>
       <c r="E22">
-        <v>0.9734785432808709</v>
+        <v>1.036630228619624</v>
       </c>
       <c r="F22">
-        <v>0.968601610312068</v>
+        <v>1.045422046055396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031411895550904</v>
+        <v>1.031587856447116</v>
       </c>
       <c r="J22">
-        <v>0.9896344488978916</v>
+        <v>1.034334578856994</v>
       </c>
       <c r="K22">
-        <v>1.001301227044167</v>
+        <v>1.035149803066335</v>
       </c>
       <c r="L22">
-        <v>0.989594362317867</v>
+        <v>1.040336913425927</v>
       </c>
       <c r="M22">
-        <v>0.9848218359297793</v>
+        <v>1.049095114647217</v>
       </c>
       <c r="N22">
-        <v>0.9998044442785757</v>
+        <v>1.015312579683168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9598936012242766</v>
+        <v>1.027938049680012</v>
       </c>
       <c r="D23">
-        <v>0.9877189494863076</v>
+        <v>1.031800858569786</v>
       </c>
       <c r="E23">
-        <v>0.9761545325884731</v>
+        <v>1.037098812050481</v>
       </c>
       <c r="F23">
-        <v>0.9717615299965586</v>
+        <v>1.045986085867717</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032406335131871</v>
+        <v>1.031705245747469</v>
       </c>
       <c r="J23">
-        <v>0.9917943947879898</v>
+        <v>1.034698238849384</v>
       </c>
       <c r="K23">
-        <v>1.003219130865089</v>
+        <v>1.035457671369204</v>
       </c>
       <c r="L23">
-        <v>0.9918894907035013</v>
+        <v>1.040735484522784</v>
       </c>
       <c r="M23">
-        <v>0.9875876092832153</v>
+        <v>1.049589480263157</v>
       </c>
       <c r="N23">
-        <v>1.000543961810142</v>
+        <v>1.015435722667444</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9713360183003187</v>
+        <v>1.029895289716894</v>
       </c>
       <c r="D24">
-        <v>0.9963921926056549</v>
+        <v>1.033285400483212</v>
       </c>
       <c r="E24">
-        <v>0.986329019544959</v>
+        <v>1.038941881273023</v>
       </c>
       <c r="F24">
-        <v>0.983775704586704</v>
+        <v>1.048205729880548</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0361468723539</v>
+        <v>1.032161989159451</v>
       </c>
       <c r="J24">
-        <v>0.9999839309674251</v>
+        <v>1.036126181712125</v>
       </c>
       <c r="K24">
-        <v>1.010482963003435</v>
+        <v>1.036664962369888</v>
       </c>
       <c r="L24">
-        <v>1.000600543053811</v>
+        <v>1.042301708531507</v>
       </c>
       <c r="M24">
-        <v>0.9980938562924454</v>
+        <v>1.051533742870091</v>
       </c>
       <c r="N24">
-        <v>1.003347735302704</v>
+        <v>1.015918931961799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9838238583506494</v>
+        <v>1.032160787256604</v>
       </c>
       <c r="D25">
-        <v>1.005872648286214</v>
+        <v>1.03500116589195</v>
       </c>
       <c r="E25">
-        <v>0.9974740415004634</v>
+        <v>1.04107730260154</v>
       </c>
       <c r="F25">
-        <v>0.9969386859699153</v>
+        <v>1.050779795845718</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040159898544448</v>
+        <v>1.032680860151608</v>
       </c>
       <c r="J25">
-        <v>1.00890815273201</v>
+        <v>1.037775591628575</v>
       </c>
       <c r="K25">
-        <v>1.01838047790019</v>
+        <v>1.038056207802188</v>
       </c>
       <c r="L25">
-        <v>1.010111696687697</v>
+        <v>1.044113338662731</v>
       </c>
       <c r="M25">
-        <v>1.009584711513014</v>
+        <v>1.053785980274965</v>
       </c>
       <c r="N25">
-        <v>1.006402099761842</v>
+        <v>1.016476412289388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_147/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033963283021942</v>
+        <v>0.9932344481345036</v>
       </c>
       <c r="D2">
-        <v>1.036364150783965</v>
+        <v>1.013022883241518</v>
       </c>
       <c r="E2">
-        <v>1.042777961901193</v>
+        <v>1.005901948507713</v>
       </c>
       <c r="F2">
-        <v>1.052831699119817</v>
+        <v>1.006897670208522</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033085759734932</v>
+        <v>1.043125202228952</v>
       </c>
       <c r="J2">
-        <v>1.03908512900133</v>
+        <v>1.015619416059437</v>
       </c>
       <c r="K2">
-        <v>1.03915810398726</v>
+        <v>1.024303721712799</v>
       </c>
       <c r="L2">
-        <v>1.045553689824181</v>
+        <v>1.017279667651604</v>
       </c>
       <c r="M2">
-        <v>1.055579343117329</v>
+        <v>1.018261738724337</v>
       </c>
       <c r="N2">
-        <v>1.016918472441336</v>
+        <v>1.008697742462053</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035269566251127</v>
+        <v>0.9997855779442255</v>
       </c>
       <c r="D3">
-        <v>1.037350660930939</v>
+        <v>1.018001389075211</v>
       </c>
       <c r="E3">
-        <v>1.044011395080187</v>
+        <v>1.011784435829091</v>
       </c>
       <c r="F3">
-        <v>1.054320994020457</v>
+        <v>1.013852983933951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033374583315384</v>
+        <v>1.04515386994377</v>
       </c>
       <c r="J3">
-        <v>1.04003253949056</v>
+        <v>1.020282090028394</v>
       </c>
       <c r="K3">
-        <v>1.039953730936244</v>
+        <v>1.028409005543429</v>
       </c>
       <c r="L3">
-        <v>1.046596917790977</v>
+        <v>1.022268720767147</v>
       </c>
       <c r="M3">
-        <v>1.056879828409117</v>
+        <v>1.024311629266492</v>
       </c>
       <c r="N3">
-        <v>1.01723796926151</v>
+        <v>1.010291623359898</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.036113699194543</v>
+        <v>1.003904896995794</v>
       </c>
       <c r="D4">
-        <v>1.037987564845148</v>
+        <v>1.021131520357436</v>
       </c>
       <c r="E4">
-        <v>1.04480888915165</v>
+        <v>1.015490044447996</v>
       </c>
       <c r="F4">
-        <v>1.055284439131023</v>
+        <v>1.018236699284475</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033559086338679</v>
+        <v>1.046412508178654</v>
       </c>
       <c r="J4">
-        <v>1.040644011864765</v>
+        <v>1.02320923982456</v>
       </c>
       <c r="K4">
-        <v>1.040466513564812</v>
+        <v>1.030981424623941</v>
       </c>
       <c r="L4">
-        <v>1.047270779300888</v>
+        <v>1.02540504498398</v>
       </c>
       <c r="M4">
-        <v>1.057720594144355</v>
+        <v>1.028119895221388</v>
       </c>
       <c r="N4">
-        <v>1.017444027952531</v>
+        <v>1.011291681562584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036468308920704</v>
+        <v>1.005609452429987</v>
       </c>
       <c r="D5">
-        <v>1.038254978207963</v>
+        <v>1.022426571069601</v>
       </c>
       <c r="E5">
-        <v>1.045144010821499</v>
+        <v>1.017024967035154</v>
       </c>
       <c r="F5">
-        <v>1.05568942151139</v>
+        <v>1.020053104850152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033636081271939</v>
+        <v>1.046929178538916</v>
       </c>
       <c r="J5">
-        <v>1.040900702898949</v>
+        <v>1.024419292675002</v>
       </c>
       <c r="K5">
-        <v>1.040681600887011</v>
+        <v>1.032043647901554</v>
       </c>
       <c r="L5">
-        <v>1.047553792150664</v>
+        <v>1.026702607769874</v>
       </c>
       <c r="M5">
-        <v>1.058073880170547</v>
+        <v>1.029696696215524</v>
       </c>
       <c r="N5">
-        <v>1.017530493817832</v>
+        <v>1.011704950728012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036527834110921</v>
+        <v>1.005894099509699</v>
       </c>
       <c r="D6">
-        <v>1.038299858155343</v>
+        <v>1.022642820434535</v>
       </c>
       <c r="E6">
-        <v>1.045200270832815</v>
+        <v>1.017281376904343</v>
       </c>
       <c r="F6">
-        <v>1.055757417042656</v>
+        <v>1.020356573356629</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033648975651888</v>
+        <v>1.047015212244762</v>
       </c>
       <c r="J6">
-        <v>1.040943780723966</v>
+        <v>1.024621290308344</v>
       </c>
       <c r="K6">
-        <v>1.040717686529286</v>
+        <v>1.032220897101639</v>
       </c>
       <c r="L6">
-        <v>1.047601295012581</v>
+        <v>1.026919275203294</v>
       </c>
       <c r="M6">
-        <v>1.058133188488609</v>
+        <v>1.029960064791122</v>
       </c>
       <c r="N6">
-        <v>1.017545002389612</v>
+        <v>1.011773930133425</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036118438538176</v>
+        <v>1.003927778415004</v>
       </c>
       <c r="D7">
-        <v>1.037991139372862</v>
+        <v>1.021148905572488</v>
       </c>
       <c r="E7">
-        <v>1.04481336762858</v>
+        <v>1.015510642672373</v>
       </c>
       <c r="F7">
-        <v>1.055289850715828</v>
+        <v>1.01826107249146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033560117387952</v>
+        <v>1.046419460311935</v>
       </c>
       <c r="J7">
-        <v>1.040647443240946</v>
+        <v>1.02322548797075</v>
       </c>
       <c r="K7">
-        <v>1.04046938948108</v>
+        <v>1.03099569251381</v>
       </c>
       <c r="L7">
-        <v>1.04727456202294</v>
+        <v>1.025422464049824</v>
       </c>
       <c r="M7">
-        <v>1.057725315439838</v>
+        <v>1.028141057954485</v>
       </c>
       <c r="N7">
-        <v>1.017445183945993</v>
+        <v>1.011297231375706</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034404981973263</v>
+        <v>0.9954741270146986</v>
       </c>
       <c r="D8">
-        <v>1.036697844835253</v>
+        <v>1.014724922009145</v>
       </c>
       <c r="E8">
-        <v>1.043194936847198</v>
+        <v>1.007911579659597</v>
       </c>
       <c r="F8">
-        <v>1.053335063409497</v>
+        <v>1.009273359900074</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033183863405718</v>
+        <v>1.043822289753786</v>
       </c>
       <c r="J8">
-        <v>1.039405636692713</v>
+        <v>1.017214434789109</v>
       </c>
       <c r="K8">
-        <v>1.039427413802104</v>
+        <v>1.025709061626457</v>
       </c>
       <c r="L8">
-        <v>1.045906499176015</v>
+        <v>1.018985439509243</v>
       </c>
       <c r="M8">
-        <v>1.056019002927847</v>
+        <v>1.020329165885498</v>
       </c>
       <c r="N8">
-        <v>1.017026588629381</v>
+        <v>1.009243090824496</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031376884466236</v>
+        <v>0.9795893847265272</v>
       </c>
       <c r="D9">
-        <v>1.034407807086443</v>
+        <v>1.002656618964129</v>
       </c>
       <c r="E9">
-        <v>1.040338150781089</v>
+        <v>0.9936900243924591</v>
       </c>
       <c r="F9">
-        <v>1.049888518530873</v>
+        <v>0.9924688933502882</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032502548460414</v>
+        <v>1.038808271826676</v>
       </c>
       <c r="J9">
-        <v>1.037205295935338</v>
+        <v>1.00588407002433</v>
       </c>
       <c r="K9">
-        <v>1.037575587565116</v>
+        <v>1.015706740925575</v>
       </c>
       <c r="L9">
-        <v>1.043486641593236</v>
+        <v>1.006886312921116</v>
       </c>
       <c r="M9">
-        <v>1.053006445988436</v>
+        <v>1.005685350809156</v>
       </c>
       <c r="N9">
-        <v>1.01628374387137</v>
+        <v>1.005367264150441</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029351985096348</v>
+        <v>0.9682235638188668</v>
       </c>
       <c r="D10">
-        <v>1.032873511607486</v>
+        <v>0.9940314671828692</v>
       </c>
       <c r="E10">
-        <v>1.038430105303647</v>
+        <v>0.9835579474287232</v>
       </c>
       <c r="F10">
-        <v>1.047589205950183</v>
+        <v>0.9805035140279992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032035971409568</v>
+        <v>1.035134833981403</v>
       </c>
       <c r="J10">
-        <v>1.035730071293444</v>
+        <v>0.99775722717856</v>
       </c>
       <c r="K10">
-        <v>1.036330318074237</v>
+        <v>1.008509328065031</v>
       </c>
       <c r="L10">
-        <v>1.041867043807881</v>
+        <v>0.9982305524887832</v>
       </c>
       <c r="M10">
-        <v>1.050993902329774</v>
+        <v>0.9952339378606909</v>
       </c>
       <c r="N10">
-        <v>1.015784942566859</v>
+        <v>1.002585445453548</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02847365693921</v>
+        <v>0.9630891703983718</v>
       </c>
       <c r="D11">
-        <v>1.032207306956935</v>
+        <v>0.9901395479661236</v>
       </c>
       <c r="E11">
-        <v>1.037603014611959</v>
+        <v>0.9789924486691959</v>
       </c>
       <c r="F11">
-        <v>1.046593127816172</v>
+        <v>0.9751125626313042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031830991399079</v>
+        <v>1.033456306312302</v>
       </c>
       <c r="J11">
-        <v>1.035089265254123</v>
+        <v>0.9940823933696572</v>
       </c>
       <c r="K11">
-        <v>1.035788527838491</v>
+        <v>1.005249844884638</v>
       </c>
       <c r="L11">
-        <v>1.041164185680429</v>
+        <v>0.9943217168483462</v>
       </c>
       <c r="M11">
-        <v>1.050121400058778</v>
+        <v>0.9905195928483792</v>
       </c>
       <c r="N11">
-        <v>1.015568095856215</v>
+        <v>1.001327317395638</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028147170981265</v>
+        <v>0.96114723214326</v>
       </c>
       <c r="D12">
-        <v>1.031959568676464</v>
+        <v>0.9886683950847729</v>
       </c>
       <c r="E12">
-        <v>1.037295657461782</v>
+        <v>0.9772675289780155</v>
       </c>
       <c r="F12">
-        <v>1.046223064974262</v>
+        <v>0.9730757724924611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031754408356949</v>
+        <v>1.03281870292982</v>
       </c>
       <c r="J12">
-        <v>1.03485093358484</v>
+        <v>0.9926920505425646</v>
       </c>
       <c r="K12">
-        <v>1.035586892235397</v>
+        <v>1.004015959134885</v>
       </c>
       <c r="L12">
-        <v>1.040902874199789</v>
+        <v>0.9928436024090952</v>
       </c>
       <c r="M12">
-        <v>1.049797149797999</v>
+        <v>0.9887376388469299</v>
       </c>
       <c r="N12">
-        <v>1.015487418585528</v>
+        <v>1.000851298818296</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028217214083889</v>
+        <v>0.961565407878057</v>
       </c>
       <c r="D13">
-        <v>1.032012722108564</v>
+        <v>0.9889851503219071</v>
       </c>
       <c r="E13">
-        <v>1.037361592968761</v>
+        <v>0.9776388866179668</v>
       </c>
       <c r="F13">
-        <v>1.046302448201921</v>
+        <v>0.9735142743525795</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031770855807422</v>
+        <v>1.032956126038667</v>
       </c>
       <c r="J13">
-        <v>1.034902070523894</v>
+        <v>0.9929914642638283</v>
       </c>
       <c r="K13">
-        <v>1.035630161478817</v>
+        <v>1.004281709585958</v>
       </c>
       <c r="L13">
-        <v>1.040958937265674</v>
+        <v>0.9931618838618976</v>
       </c>
       <c r="M13">
-        <v>1.049866710087634</v>
+        <v>0.9891213123247327</v>
       </c>
       <c r="N13">
-        <v>1.015504730069488</v>
+        <v>1.000953811003478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028446674349158</v>
+        <v>0.9629293764450035</v>
       </c>
       <c r="D14">
-        <v>1.032186834567553</v>
+        <v>0.9900184744526986</v>
       </c>
       <c r="E14">
-        <v>1.037577611232315</v>
+        <v>0.9788504740416883</v>
       </c>
       <c r="F14">
-        <v>1.046562539871771</v>
+        <v>0.9749449191891737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031824670092761</v>
+        <v>1.033403895617169</v>
       </c>
       <c r="J14">
-        <v>1.035069570983932</v>
+        <v>0.9939679962253909</v>
       </c>
       <c r="K14">
-        <v>1.035771868561493</v>
+        <v>1.005148334624933</v>
       </c>
       <c r="L14">
-        <v>1.041142590484493</v>
+        <v>0.9942000825273679</v>
       </c>
       <c r="M14">
-        <v>1.050094600808117</v>
+        <v>0.9903729403567825</v>
       </c>
       <c r="N14">
-        <v>1.01556142972188</v>
+        <v>1.001288150896026</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028588020987292</v>
+        <v>0.9637650619703216</v>
       </c>
       <c r="D15">
-        <v>1.032294073776558</v>
+        <v>0.990651696952986</v>
       </c>
       <c r="E15">
-        <v>1.037710688682026</v>
+        <v>0.9795930445265401</v>
       </c>
       <c r="F15">
-        <v>1.046722780809557</v>
+        <v>0.9758217447458168</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03185776793229</v>
+        <v>1.033677880486754</v>
       </c>
       <c r="J15">
-        <v>1.035172732651671</v>
+        <v>0.9945662495899147</v>
       </c>
       <c r="K15">
-        <v>1.035859127127648</v>
+        <v>1.005679166885568</v>
       </c>
       <c r="L15">
-        <v>1.041255713544736</v>
+        <v>0.9948362144050367</v>
       </c>
       <c r="M15">
-        <v>1.050234989906063</v>
+        <v>0.991139944715167</v>
       </c>
       <c r="N15">
-        <v>1.015596346888494</v>
+        <v>1.001492976179162</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029410244076966</v>
+        <v>0.9685595985798622</v>
       </c>
       <c r="D16">
-        <v>1.032917686290455</v>
+        <v>0.9942862917732175</v>
       </c>
       <c r="E16">
-        <v>1.038484977364274</v>
+        <v>0.9838569980037009</v>
       </c>
       <c r="F16">
-        <v>1.047655302170626</v>
+        <v>0.9808566388778522</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032049513015865</v>
+        <v>1.03524430442878</v>
       </c>
       <c r="J16">
-        <v>1.035772556521843</v>
+        <v>0.9979976704201623</v>
       </c>
       <c r="K16">
-        <v>1.036366220294669</v>
+        <v>1.008722497413777</v>
       </c>
       <c r="L16">
-        <v>1.041913656939655</v>
+        <v>0.9984864121037118</v>
       </c>
       <c r="M16">
-        <v>1.051051784708627</v>
+        <v>0.995542631127052</v>
       </c>
       <c r="N16">
-        <v>1.015799315698042</v>
+        <v>1.002667761108967</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029925588570453</v>
+        <v>0.97150820103977</v>
       </c>
       <c r="D17">
-        <v>1.033308365931413</v>
+        <v>0.99652281868431</v>
       </c>
       <c r="E17">
-        <v>1.038970425596472</v>
+        <v>0.9864823939795767</v>
       </c>
       <c r="F17">
-        <v>1.048240120731226</v>
+        <v>0.9839568193360372</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032168999196861</v>
+        <v>1.036202731546929</v>
       </c>
       <c r="J17">
-        <v>1.036148265704165</v>
+        <v>1.000107089368512</v>
       </c>
       <c r="K17">
-        <v>1.036683613561138</v>
+        <v>1.010592091411686</v>
       </c>
       <c r="L17">
-        <v>1.042325946503937</v>
+        <v>1.000731661057919</v>
       </c>
       <c r="M17">
-        <v>1.051563851717493</v>
+        <v>0.9982521151295611</v>
       </c>
       <c r="N17">
-        <v>1.015926400941103</v>
+        <v>1.003389895810025</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030226032714666</v>
+        <v>0.9732077339429966</v>
       </c>
       <c r="D18">
-        <v>1.033536064991793</v>
+        <v>0.9978123221799634</v>
       </c>
       <c r="E18">
-        <v>1.039253493344092</v>
+        <v>0.987996714953719</v>
       </c>
       <c r="F18">
-        <v>1.048581191460245</v>
+        <v>0.9857450607820976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032238409010066</v>
+        <v>1.036753351620215</v>
       </c>
       <c r="J18">
-        <v>1.036367215475283</v>
+        <v>1.001322581570717</v>
       </c>
       <c r="K18">
-        <v>1.036868494919225</v>
+        <v>1.011668924943919</v>
       </c>
       <c r="L18">
-        <v>1.042566277636813</v>
+        <v>1.002025908119345</v>
       </c>
       <c r="M18">
-        <v>1.051862430051129</v>
+        <v>0.9998144749206536</v>
       </c>
       <c r="N18">
-        <v>1.016000444479054</v>
+        <v>1.003805982127326</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030328451533984</v>
+        <v>0.9737838611303715</v>
       </c>
       <c r="D19">
-        <v>1.033613674427493</v>
+        <v>0.9982495154746099</v>
       </c>
       <c r="E19">
-        <v>1.039349997679198</v>
+        <v>0.9885102368691803</v>
       </c>
       <c r="F19">
-        <v>1.048697480470935</v>
+        <v>0.9863514858602578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032262027752288</v>
+        <v>1.036939697769079</v>
       </c>
       <c r="J19">
-        <v>1.036441838717836</v>
+        <v>1.001734561338496</v>
       </c>
       <c r="K19">
-        <v>1.036931492577335</v>
+        <v>1.012033827046543</v>
       </c>
       <c r="L19">
-        <v>1.042648198955025</v>
+        <v>1.002464664112699</v>
       </c>
       <c r="M19">
-        <v>1.051964220454451</v>
+        <v>1.0003442102693</v>
       </c>
       <c r="N19">
-        <v>1.016025677346241</v>
+        <v>1.003947006263042</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029870312288961</v>
+        <v>0.9711939666795496</v>
       </c>
       <c r="D20">
-        <v>1.033266468113732</v>
+        <v>0.9962844276840912</v>
       </c>
       <c r="E20">
-        <v>1.038918350523733</v>
+        <v>0.9862024909744509</v>
       </c>
       <c r="F20">
-        <v>1.048177379834024</v>
+        <v>0.9836262916095998</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032156208892676</v>
+        <v>1.03610077800014</v>
       </c>
       <c r="J20">
-        <v>1.036107975866148</v>
+        <v>0.9998823226894912</v>
       </c>
       <c r="K20">
-        <v>1.03664958602045</v>
+        <v>1.010392927114349</v>
       </c>
       <c r="L20">
-        <v>1.042281727322217</v>
+        <v>1.000492370696676</v>
       </c>
       <c r="M20">
-        <v>1.05150892233073</v>
+        <v>0.9979632956440776</v>
       </c>
       <c r="N20">
-        <v>1.015912774505094</v>
+        <v>1.003312951861632</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02837911057224</v>
+        <v>0.9625287064863403</v>
       </c>
       <c r="D21">
-        <v>1.032135570548127</v>
+        <v>0.9897149071922632</v>
       </c>
       <c r="E21">
-        <v>1.037514003106539</v>
+        <v>0.9784945147140084</v>
       </c>
       <c r="F21">
-        <v>1.046485951477322</v>
+        <v>0.9745246025517279</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031808835403293</v>
+        <v>1.033272436417437</v>
       </c>
       <c r="J21">
-        <v>1.035020254799129</v>
+        <v>0.9936811482275594</v>
       </c>
       <c r="K21">
-        <v>1.035730150163311</v>
+        <v>1.004893789300791</v>
       </c>
       <c r="L21">
-        <v>1.041088515810447</v>
+        <v>0.9938950996746289</v>
       </c>
       <c r="M21">
-        <v>1.05002749724184</v>
+        <v>0.990005239645031</v>
       </c>
       <c r="N21">
-        <v>1.015544736706189</v>
+        <v>1.001189941674732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027440166055565</v>
+        <v>0.9568775454199455</v>
       </c>
       <c r="D22">
-        <v>1.031422907600754</v>
+        <v>0.985435618219571</v>
       </c>
       <c r="E22">
-        <v>1.036630228619624</v>
+        <v>0.9734785432808691</v>
       </c>
       <c r="F22">
-        <v>1.045422046055396</v>
+        <v>0.9686016103120659</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031587856447116</v>
+        <v>1.031411895550903</v>
       </c>
       <c r="J22">
-        <v>1.034334578856994</v>
+        <v>0.9896344488978903</v>
       </c>
       <c r="K22">
-        <v>1.035149803066335</v>
+        <v>1.001301227044165</v>
       </c>
       <c r="L22">
-        <v>1.040336913425927</v>
+        <v>0.9895943623178654</v>
       </c>
       <c r="M22">
-        <v>1.049095114647217</v>
+        <v>0.9848218359297775</v>
       </c>
       <c r="N22">
-        <v>1.015312579683168</v>
+        <v>0.9998044442785753</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027938049680012</v>
+        <v>0.9598936012242786</v>
       </c>
       <c r="D23">
-        <v>1.031800858569786</v>
+        <v>0.9877189494863096</v>
       </c>
       <c r="E23">
-        <v>1.037098812050481</v>
+        <v>0.9761545325884751</v>
       </c>
       <c r="F23">
-        <v>1.045986085867717</v>
+        <v>0.9717615299965608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031705245747469</v>
+        <v>1.032406335131872</v>
       </c>
       <c r="J23">
-        <v>1.034698238849384</v>
+        <v>0.9917943947879917</v>
       </c>
       <c r="K23">
-        <v>1.035457671369204</v>
+        <v>1.003219130865091</v>
       </c>
       <c r="L23">
-        <v>1.040735484522784</v>
+        <v>0.9918894907035032</v>
       </c>
       <c r="M23">
-        <v>1.049589480263157</v>
+        <v>0.9875876092832174</v>
       </c>
       <c r="N23">
-        <v>1.015435722667444</v>
+        <v>1.000543961810143</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029895289716894</v>
+        <v>0.971336018300319</v>
       </c>
       <c r="D24">
-        <v>1.033285400483212</v>
+        <v>0.9963921926056551</v>
       </c>
       <c r="E24">
-        <v>1.038941881273023</v>
+        <v>0.986329019544959</v>
       </c>
       <c r="F24">
-        <v>1.048205729880548</v>
+        <v>0.9837757045867035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032161989159451</v>
+        <v>1.0361468723539</v>
       </c>
       <c r="J24">
-        <v>1.036126181712125</v>
+        <v>0.9999839309674253</v>
       </c>
       <c r="K24">
-        <v>1.036664962369888</v>
+        <v>1.010482963003436</v>
       </c>
       <c r="L24">
-        <v>1.042301708531507</v>
+        <v>1.000600543053811</v>
       </c>
       <c r="M24">
-        <v>1.051533742870091</v>
+        <v>0.998093856292445</v>
       </c>
       <c r="N24">
-        <v>1.015918931961799</v>
+        <v>1.003347735302705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032160787256604</v>
+        <v>0.9838238583506482</v>
       </c>
       <c r="D25">
-        <v>1.03500116589195</v>
+        <v>1.005872648286213</v>
       </c>
       <c r="E25">
-        <v>1.04107730260154</v>
+        <v>0.9974740415004621</v>
       </c>
       <c r="F25">
-        <v>1.050779795845718</v>
+        <v>0.9969386859699136</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032680860151608</v>
+        <v>1.040159898544447</v>
       </c>
       <c r="J25">
-        <v>1.037775591628575</v>
+        <v>1.008908152732009</v>
       </c>
       <c r="K25">
-        <v>1.038056207802188</v>
+        <v>1.018380477900189</v>
       </c>
       <c r="L25">
-        <v>1.044113338662731</v>
+        <v>1.010111696687696</v>
       </c>
       <c r="M25">
-        <v>1.053785980274965</v>
+        <v>1.009584711513012</v>
       </c>
       <c r="N25">
-        <v>1.016476412289388</v>
+        <v>1.006402099761842</v>
       </c>
     </row>
   </sheetData>
